--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0646333175181009</v>
+        <v>1.0646334770889081</v>
       </c>
       <c r="C2">
-        <v>0.33521478180194586</v>
+        <v>0.33521477735839678</v>
       </c>
       <c r="D2">
-        <v>4.0953638029081088</v>
+        <v>4.0953637885257095</v>
       </c>
       <c r="E2">
-        <v>1.7765481640848173</v>
+        <v>1.7765482084000488</v>
       </c>
       <c r="F2">
-        <v>14.031210185330679</v>
+        <v>14.031209982126253</v>
       </c>
       <c r="G2">
-        <v>1.1754033005141931</v>
+        <v>1.1754032995537596</v>
       </c>
       <c r="H2">
-        <v>2.9743834138726357</v>
+        <v>2.9743834214695708</v>
       </c>
       <c r="I2">
-        <v>0.46758255297477869</v>
+        <v>0.46758255134407023</v>
       </c>
       <c r="J2">
-        <v>1.0196380090520225</v>
+        <v>1.0196379953975017</v>
       </c>
       <c r="K2">
-        <v>11.049485625278511</v>
+        <v>11.049485503864187</v>
       </c>
       <c r="L2">
-        <v>1.1815028247558792</v>
+        <v>1.1815028058939163</v>
       </c>
       <c r="M2">
-        <v>1.4525284251266144</v>
+        <v>1.4525284212559142</v>
       </c>
       <c r="N2">
-        <v>0.67991053319047157</v>
+        <v>0.67991057008660505</v>
       </c>
       <c r="O2">
-        <v>1.016509392390502</v>
+        <v>1.0165093928875621</v>
       </c>
       <c r="P2">
-        <v>0.48789265253669933</v>
+        <v>0.4878926514252383</v>
       </c>
       <c r="Q2">
-        <v>0.57727653090850639</v>
+        <v>0.57727652598614387</v>
       </c>
       <c r="R2">
-        <v>1.6816769670163219</v>
+        <v>1.6816769663972508</v>
       </c>
       <c r="S2">
-        <v>10.443742509313784</v>
+        <v>10.443742581584903</v>
       </c>
       <c r="T2">
-        <v>10.778541656669294</v>
+        <v>10.778541698571733</v>
       </c>
       <c r="U2">
-        <v>0.97598143059967679</v>
+        <v>0.97598142459051207</v>
       </c>
       <c r="V2">
-        <v>11.696134419674575</v>
+        <v>11.696134517766946</v>
       </c>
       <c r="W2">
-        <v>7.0493884086388663</v>
+        <v>7.0493883718848522</v>
       </c>
       <c r="X2">
-        <v>0.30272328874012128</v>
+        <v>0.30272328153532541</v>
       </c>
       <c r="Y2">
-        <v>0.65154577151671877</v>
+        <v>0.65154576984267298</v>
       </c>
       <c r="AA2">
-        <v>1.0883290418113902</v>
+        <v>1.0883290091397206</v>
       </c>
       <c r="AB2">
-        <v>0.2557808822112515</v>
+        <v>0.25578087623082812</v>
       </c>
       <c r="AC2">
-        <v>13.218885758808103</v>
+        <v>13.218885508316225</v>
       </c>
       <c r="AD2">
-        <v>0.6331593419469298</v>
+        <v>0.63315933324462959</v>
       </c>
       <c r="AE2">
-        <v>8.0531489954379936</v>
+        <v>8.0531489548123929</v>
       </c>
       <c r="AF2">
-        <v>1.1446477248778684</v>
+        <v>1.144647717333267</v>
       </c>
       <c r="AG2">
-        <v>5.4587028693063484</v>
+        <v>5.4587027186020673</v>
       </c>
       <c r="AH2">
-        <v>0.28736499348610089</v>
+        <v>0.28736499170918378</v>
       </c>
       <c r="AI2">
-        <v>1.2323206191744556</v>
+        <v>1.2323206325616685</v>
       </c>
       <c r="AJ2">
-        <v>9.9434385833645997</v>
+        <v>9.9434386859063224</v>
       </c>
       <c r="AK2">
-        <v>0.99069538861230877</v>
+        <v>0.99069538410874913</v>
       </c>
       <c r="AL2">
-        <v>1.5284457552154087</v>
+        <v>1.5284458077853338</v>
       </c>
       <c r="AM2">
-        <v>0.18082567293744342</v>
+        <v>0.18082567314225537</v>
       </c>
       <c r="AN2">
-        <v>1.0600421116013232</v>
+        <v>1.0600421034538978</v>
       </c>
       <c r="AO2">
-        <v>1.1261443561314324</v>
+        <v>1.126144345552663</v>
       </c>
       <c r="AP2">
-        <v>0.30628785367995071</v>
+        <v>0.30628784911743884</v>
       </c>
       <c r="AQ2">
-        <v>1.5592842908465179</v>
+        <v>1.5592843075931735</v>
       </c>
       <c r="AR2">
-        <v>1.5212018267208791</v>
+        <v>1.5212017865930982</v>
       </c>
       <c r="AS2">
-        <v>7.0236737543579171</v>
+        <v>7.0236736776724324</v>
       </c>
       <c r="AT2">
-        <v>0.80370350595803131</v>
+        <v>0.80370350033196725</v>
       </c>
       <c r="AU2">
-        <v>11.163314327170673</v>
+        <v>11.163314326872054</v>
       </c>
       <c r="AV2">
-        <v>3.9538009164136012</v>
+        <v>3.953800764263923</v>
       </c>
       <c r="AW2">
-        <v>0.26597565128503486</v>
+        <v>0.26597565314650939</v>
       </c>
       <c r="AX2">
-        <v>0.39730189553387463</v>
+        <v>0.39730189138839617</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.2323081771282896</v>
+        <v>4.2323075578917306</v>
       </c>
       <c r="C3">
-        <v>0.52415244260768101</v>
+        <v>0.52415243817992785</v>
       </c>
       <c r="D3">
-        <v>1.3528632885370537</v>
+        <v>1.3528633010774931</v>
       </c>
       <c r="E3">
-        <v>9.2331447130747772</v>
+        <v>9.2331445880640413</v>
       </c>
       <c r="F3">
-        <v>1.6636874753372346</v>
+        <v>1.6636874753331696</v>
       </c>
       <c r="G3">
-        <v>1.2750375250236812</v>
+        <v>1.2750375490727903</v>
       </c>
       <c r="H3">
-        <v>3.3777512890504431</v>
+        <v>3.377751253212594</v>
       </c>
       <c r="I3">
-        <v>0.79749611504115303</v>
+        <v>0.79749611024881617</v>
       </c>
       <c r="J3">
-        <v>1.6010795108515599</v>
+        <v>1.6010794935137711</v>
       </c>
       <c r="K3">
-        <v>5.5217971484815269</v>
+        <v>5.5217971081126525</v>
       </c>
       <c r="L3">
-        <v>1.2669450154181618</v>
+        <v>1.2669450097799599</v>
       </c>
       <c r="M3">
-        <v>1.1544428630785313</v>
+        <v>1.1549520117225214</v>
       </c>
       <c r="N3">
-        <v>0.13232252825716101</v>
+        <v>0.13232252769231845</v>
       </c>
       <c r="O3">
-        <v>1.82799329826083</v>
+        <v>1.8279932993459795</v>
       </c>
       <c r="P3">
-        <v>0.31729241798083041</v>
+        <v>0.31729241695090499</v>
       </c>
       <c r="Q3">
-        <v>0.2947238815157337</v>
+        <v>0.29472387949589229</v>
       </c>
       <c r="R3">
-        <v>1.4181226803436373</v>
+        <v>1.4181226773019651</v>
       </c>
       <c r="S3">
-        <v>3.7632563186267056</v>
+        <v>3.7632562378633976</v>
       </c>
       <c r="T3">
-        <v>1.2986770052387633</v>
+        <v>1.2986769747003517</v>
       </c>
       <c r="U3">
-        <v>1.1309484162975483</v>
+        <v>1.1309484171984259</v>
       </c>
       <c r="V3">
-        <v>5.0305283146173041</v>
+        <v>5.0305282442491386</v>
       </c>
       <c r="W3">
-        <v>0.92471553628937853</v>
+        <v>0.92471549001567921</v>
       </c>
       <c r="X3">
-        <v>0.37577036745255016</v>
+        <v>0.37577035835089495</v>
       </c>
       <c r="Y3">
-        <v>0.53023151174369398</v>
+        <v>0.53023150995697965</v>
       </c>
       <c r="AA3">
-        <v>0.70801850090493279</v>
+        <v>0.70801855739082042</v>
       </c>
       <c r="AB3">
-        <v>2.6909447268596329</v>
+        <v>2.6909446171402971</v>
       </c>
       <c r="AC3">
-        <v>5.5251435119121073</v>
+        <v>5.525143486421876</v>
       </c>
       <c r="AD3">
-        <v>1.9388064218189569</v>
+        <v>1.9388063775190865</v>
       </c>
       <c r="AE3">
-        <v>1.8338386552330903</v>
+        <v>1.8338385925046925</v>
       </c>
       <c r="AF3">
-        <v>1.43785927088439</v>
+        <v>1.4378589958575134</v>
       </c>
       <c r="AG3">
-        <v>2.6350135980756306</v>
+        <v>2.6350135334374207</v>
       </c>
       <c r="AH3">
-        <v>0.72285391986771175</v>
+        <v>0.72285389217891671</v>
       </c>
       <c r="AI3">
-        <v>1.9909195250312215</v>
+        <v>1.99091951809264</v>
       </c>
       <c r="AJ3">
-        <v>5.2597096419254132</v>
+        <v>5.2597095154429425</v>
       </c>
       <c r="AK3">
-        <v>0.38628750155590019</v>
+        <v>0.38628750077318791</v>
       </c>
       <c r="AL3">
-        <v>1.6739224433880107</v>
+        <v>1.6739224028468342</v>
       </c>
       <c r="AM3">
-        <v>0.73773041281105234</v>
+        <v>0.73773049294567783</v>
       </c>
       <c r="AN3">
-        <v>2.3739224733048871</v>
+        <v>2.3739223718691895</v>
       </c>
       <c r="AO3">
-        <v>0.65548867716165704</v>
+        <v>0.65548866992790089</v>
       </c>
       <c r="AP3">
-        <v>0.16797777962482982</v>
+        <v>0.16797777963491686</v>
       </c>
       <c r="AQ3">
-        <v>1.4354045134695599</v>
+        <v>1.4354045238964137</v>
       </c>
       <c r="AR3">
-        <v>1.8330853949430623</v>
+        <v>1.8330853403953289</v>
       </c>
       <c r="AS3">
-        <v>3.5614551032548576</v>
+        <v>3.5614552489218667</v>
       </c>
       <c r="AT3">
-        <v>0.44471231851973131</v>
+        <v>0.44471231698744074</v>
       </c>
       <c r="AU3">
-        <v>16.939371929023416</v>
+        <v>16.939371717128317</v>
       </c>
       <c r="AV3">
-        <v>2.7572483395832954</v>
+        <v>2.7572483069707041</v>
       </c>
       <c r="AW3">
-        <v>0.52653292493866444</v>
+        <v>0.5265329385847527</v>
       </c>
       <c r="AX3">
-        <v>1.155142031128374</v>
+        <v>1.1551420167084874</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.0646334770889081</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.33521477735839678</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.0953637885257095</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.7765482084000488</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.031209982126253</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1754032995537596</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.9743834214695708</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.46758255134407023</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.0196379953975017</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.049485503864187</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.1815028058939163</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.4525284212559142</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.67991057008660505</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.0165093928875621</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.4878926514252383</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.57727652598614387</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.6816769663972508</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>10.443742581584903</v>
@@ -585,55 +474,55 @@
         <v>0.65154576984267298</v>
       </c>
       <c r="AA2">
-        <v>1.0883290091397206</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.25578087623082812</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.218885508316225</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.63315933324462959</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.0531489548123929</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.144647717333267</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.4587027186020673</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.28736499170918378</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.2323206325616685</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.9434386859063224</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.99069538410874913</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.5284458077853338</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.18082567314225537</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.0600421034538978</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.126144345552663</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.30628784911743884</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.5592843075931735</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.5212017865930982</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.39730189138839617</v>
       </c>
+      <c r="AY2">
+        <v>2.6708970008946018</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.2323075578917306</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.52415243817992785</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.3528633010774931</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.2331445880640413</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.6636874753331696</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.2750375490727903</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.377751253212594</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.79749611024881617</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.6010794935137711</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.5217971081126525</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2669450097799599</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.1549520117225214</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.13232252769231845</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.8279932993459795</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.31729241695090499</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.29472387949589229</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.4181226773019651</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.7632562378633976</v>
@@ -734,55 +623,55 @@
         <v>0.53023150995697965</v>
       </c>
       <c r="AA3">
-        <v>0.70801855739082042</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.6909446171402971</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.525143486421876</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.9388063775190865</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.8338385925046925</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.4378589958575134</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.6350135334374207</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.72285389217891671</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.99091951809264</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.2597095154429425</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.38628750077318791</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.6739224028468342</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.73773049294567783</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.3739223718691895</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.65548866992790089</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.16797777963491686</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.4354045238964137</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.8330853403953289</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.1551420167084874</v>
+      </c>
+      <c r="AY3">
+        <v>1.1578084999787879</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0646333175181009</v>
+        <v>0.59215529571917125</v>
       </c>
       <c r="C2">
-        <v>0.33521478180194586</v>
+        <v>1.6816769663972508</v>
       </c>
       <c r="D2">
-        <v>4.1033578131301827</v>
+        <v>1.0600421034538978</v>
       </c>
       <c r="E2">
-        <v>1.7765481640848173</v>
+        <v>1.5592843075931735</v>
       </c>
       <c r="F2">
         <v>14.031210185330679</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.2323081771282896</v>
+        <v>1.8279932993459795</v>
       </c>
       <c r="C3">
-        <v>0.52415244260768101</v>
+        <v>1.4181226773019651</v>
       </c>
       <c r="D3">
-        <v>1.3528632885370537</v>
+        <v>2.3739223718691895</v>
       </c>
       <c r="E3">
-        <v>9.2331447130747772</v>
+        <v>1.2314511606815479</v>
       </c>
       <c r="F3">
         <v>1.6636874753372346</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.0646333175181009</v>
-      </c>
       <c r="C2">
-        <v>0.33521478180194586</v>
+        <v>0.59215529571917125</v>
       </c>
       <c r="D2">
-        <v>4.1033578131301827</v>
+        <v>0.18082567314225537</v>
       </c>
       <c r="E2">
-        <v>1.7765481640848173</v>
+        <v>1.0600421034538978</v>
       </c>
       <c r="F2">
         <v>14.031210185330679</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.2323081771282896</v>
+        <v>0.13232252769231845</v>
       </c>
       <c r="C3">
-        <v>0.52415244260768101</v>
+        <v>1.8279932993459795</v>
       </c>
       <c r="D3">
-        <v>1.3528632885370537</v>
+        <v>0.73773049294567783</v>
       </c>
       <c r="E3">
-        <v>9.2331447130747772</v>
+        <v>2.3739223718691895</v>
       </c>
       <c r="F3">
         <v>1.6636874753372346</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.0646334770889081</v>
+      </c>
       <c r="C2">
+        <v>0.33521477735839678</v>
+      </c>
+      <c r="D2">
+        <v>4.1033577428742545</v>
+      </c>
+      <c r="E2">
+        <v>1.7765482084000488</v>
+      </c>
+      <c r="F2">
+        <v>14.031209982126253</v>
+      </c>
+      <c r="G2">
+        <v>1.1754032995537596</v>
+      </c>
+      <c r="H2">
+        <v>2.9743834214695708</v>
+      </c>
+      <c r="I2">
+        <v>0.46758255134407023</v>
+      </c>
+      <c r="J2">
+        <v>1.0196379953975017</v>
+      </c>
+      <c r="K2">
+        <v>11.049485503864187</v>
+      </c>
+      <c r="L2">
+        <v>1.1815028058939163</v>
+      </c>
+      <c r="M2">
+        <v>1.4525284212559142</v>
+      </c>
+      <c r="O2">
         <v>0.59215529571917125</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.4878926514252383</v>
+      </c>
+      <c r="Q2">
+        <v>0.57727652598614387</v>
+      </c>
+      <c r="R2">
+        <v>1.6816769663972508</v>
+      </c>
+      <c r="S2">
+        <v>10.443742581584903</v>
+      </c>
+      <c r="T2">
+        <v>8.8555787398857611</v>
+      </c>
+      <c r="U2">
+        <v>0.97598142459051207</v>
+      </c>
+      <c r="V2">
+        <v>11.696134517766946</v>
+      </c>
+      <c r="W2">
+        <v>7.0493883718848522</v>
+      </c>
+      <c r="X2">
+        <v>0.30272328153532541</v>
+      </c>
+      <c r="Y2">
+        <v>0.64127182294443252</v>
+      </c>
+      <c r="AA2">
+        <v>1.0883290091397206</v>
+      </c>
+      <c r="AB2">
+        <v>0.25578087623082579</v>
+      </c>
+      <c r="AC2">
+        <v>13.218885508316225</v>
+      </c>
+      <c r="AD2">
+        <v>0.63315933324462959</v>
+      </c>
+      <c r="AE2">
+        <v>8.0531489548123929</v>
+      </c>
+      <c r="AF2">
+        <v>1.144647717333267</v>
+      </c>
+      <c r="AG2">
+        <v>5.4587027186020673</v>
+      </c>
+      <c r="AH2">
+        <v>0.52133084108181782</v>
+      </c>
+      <c r="AI2">
+        <v>1.2323206325616685</v>
+      </c>
+      <c r="AJ2">
+        <v>9.9434386859063224</v>
+      </c>
+      <c r="AK2">
+        <v>0.99069538410874913</v>
+      </c>
+      <c r="AL2">
+        <v>1.5284458077853338</v>
+      </c>
+      <c r="AM2">
         <v>0.18082567314225537</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.0600421034538978</v>
       </c>
-      <c r="F2">
-        <v>14.031210185330679</v>
-      </c>
-      <c r="G2">
-        <v>1.1754033005141931</v>
-      </c>
-      <c r="H2">
-        <v>2.9743834138726357</v>
-      </c>
-      <c r="I2">
-        <v>0.46758255297477869</v>
-      </c>
-      <c r="J2">
-        <v>1.0196380090520225</v>
-      </c>
-      <c r="K2">
-        <v>11.049485625278511</v>
-      </c>
-      <c r="L2">
-        <v>1.1815028247558792</v>
-      </c>
-      <c r="M2">
-        <v>1.4525284251266144</v>
-      </c>
-      <c r="O2">
-        <v>0.59215530557062246</v>
-      </c>
-      <c r="P2">
-        <v>0.48789265253669933</v>
-      </c>
-      <c r="Q2">
-        <v>0.57727653090850639</v>
-      </c>
-      <c r="R2">
-        <v>1.6816769670163219</v>
-      </c>
-      <c r="S2">
-        <v>10.443742509313784</v>
-      </c>
-      <c r="T2">
-        <v>8.8555787016702059</v>
-      </c>
-      <c r="U2">
-        <v>0.97598143059967679</v>
-      </c>
-      <c r="V2">
-        <v>11.696134419674575</v>
-      </c>
-      <c r="W2">
-        <v>7.0493884086388663</v>
-      </c>
-      <c r="X2">
-        <v>0.30272328874012128</v>
-      </c>
-      <c r="Y2">
-        <v>0.64127181964358626</v>
-      </c>
-      <c r="AA2">
-        <v>1.0883290418113902</v>
-      </c>
-      <c r="AB2">
-        <v>0.25578088221125039</v>
-      </c>
-      <c r="AC2">
-        <v>13.218885758808103</v>
-      </c>
-      <c r="AD2">
-        <v>0.6331593419469298</v>
-      </c>
-      <c r="AE2">
-        <v>8.0531489954379936</v>
-      </c>
-      <c r="AF2">
-        <v>1.1446477248778684</v>
-      </c>
-      <c r="AG2">
-        <v>5.4587028693063484</v>
-      </c>
-      <c r="AH2">
-        <v>0.52133084177580613</v>
-      </c>
-      <c r="AI2">
-        <v>1.2323206191744556</v>
-      </c>
-      <c r="AJ2">
-        <v>9.9434385833645997</v>
-      </c>
-      <c r="AK2">
-        <v>0.99069538861230877</v>
-      </c>
-      <c r="AL2">
-        <v>1.5284457552154087</v>
-      </c>
-      <c r="AM2">
-        <v>0.18082567293744342</v>
-      </c>
-      <c r="AN2">
-        <v>1.0600421116013232</v>
-      </c>
       <c r="AO2">
-        <v>1.1261443561314324</v>
+        <v>1.126144345552663</v>
       </c>
       <c r="AP2">
-        <v>0.25528548075544222</v>
+        <v>0.25528547945120872</v>
       </c>
       <c r="AQ2">
-        <v>1.5592842908465179</v>
+        <v>1.5592843075931735</v>
       </c>
       <c r="AR2">
-        <v>1.5212018267208791</v>
+        <v>1.5212017865930982</v>
       </c>
       <c r="AS2">
-        <v>7.0236737543579171</v>
+        <v>7.0236736776724324</v>
       </c>
       <c r="AT2">
-        <v>0.80370350595803131</v>
+        <v>0.80370350033196725</v>
       </c>
       <c r="AU2">
-        <v>11.163314327170673</v>
+        <v>11.163314326872054</v>
       </c>
       <c r="AV2">
-        <v>3.9538009164136012</v>
+        <v>3.953800764263923</v>
       </c>
       <c r="AW2">
-        <v>0.26597565128503486</v>
+        <v>0.26597565314650939</v>
       </c>
       <c r="AX2">
-        <v>0.39730189553388873</v>
+        <v>0.39730189138839145</v>
       </c>
       <c r="AY2">
-        <v>2.6708970281188149</v>
+        <v>2.6708970008946018</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.2323075578917306</v>
+      </c>
+      <c r="C3">
+        <v>0.52415243817992785</v>
+      </c>
+      <c r="D3">
+        <v>1.3528633010774931</v>
+      </c>
+      <c r="E3">
+        <v>9.2331445880640413</v>
+      </c>
+      <c r="F3">
+        <v>1.6636874753331696</v>
+      </c>
+      <c r="G3">
+        <v>1.2750375490727903</v>
+      </c>
+      <c r="H3">
+        <v>3.377751253212594</v>
+      </c>
+      <c r="I3">
+        <v>1.1323968278514562</v>
+      </c>
+      <c r="J3">
+        <v>1.6010794935137711</v>
+      </c>
+      <c r="K3">
+        <v>5.5217971081126525</v>
+      </c>
+      <c r="L3">
+        <v>1.2669450097799599</v>
+      </c>
+      <c r="M3">
+        <v>1.1549520117225214</v>
+      </c>
+      <c r="N3">
         <v>0.13232252769231845</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.8279932993459795</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.31729241695090499</v>
+      </c>
+      <c r="Q3">
+        <v>0.29472387949589229</v>
+      </c>
+      <c r="R3">
+        <v>1.4181226773019651</v>
+      </c>
+      <c r="S3">
+        <v>5.1237895864319336</v>
+      </c>
+      <c r="T3">
+        <v>1.1361481928485393</v>
+      </c>
+      <c r="U3">
+        <v>1.1309484171984259</v>
+      </c>
+      <c r="V3">
+        <v>5.0305282442491386</v>
+      </c>
+      <c r="W3">
+        <v>1.085900920036881</v>
+      </c>
+      <c r="X3">
+        <v>0.37577035835089495</v>
+      </c>
+      <c r="Y3">
+        <v>0.53023150995697965</v>
+      </c>
+      <c r="AA3">
+        <v>0.70801855739082042</v>
+      </c>
+      <c r="AB3">
+        <v>2.6909446171402971</v>
+      </c>
+      <c r="AC3">
+        <v>2.4260587793410018</v>
+      </c>
+      <c r="AD3">
+        <v>1.9388063775190865</v>
+      </c>
+      <c r="AE3">
+        <v>1.8338385925046925</v>
+      </c>
+      <c r="AF3">
+        <v>0.74093619349322248</v>
+      </c>
+      <c r="AG3">
+        <v>2.6350135334374207</v>
+      </c>
+      <c r="AH3">
+        <v>0.40401219751600531</v>
+      </c>
+      <c r="AI3">
+        <v>1.99091951809264</v>
+      </c>
+      <c r="AJ3">
+        <v>5.2597095154429425</v>
+      </c>
+      <c r="AK3">
+        <v>0.38628750077318791</v>
+      </c>
+      <c r="AL3">
+        <v>1.6739224028468342</v>
+      </c>
+      <c r="AM3">
         <v>0.73773049294567783</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.3739223718691895</v>
       </c>
-      <c r="F3">
-        <v>1.6636874753372346</v>
-      </c>
-      <c r="G3">
-        <v>1.2750375250236812</v>
-      </c>
-      <c r="H3">
-        <v>3.3777512890504431</v>
-      </c>
-      <c r="I3">
-        <v>1.1323968348834748</v>
-      </c>
-      <c r="J3">
-        <v>1.6010795108515599</v>
-      </c>
-      <c r="K3">
-        <v>5.5217971484815269</v>
-      </c>
-      <c r="L3">
-        <v>1.2669450154181618</v>
-      </c>
-      <c r="M3">
-        <v>1.1544428630785313</v>
-      </c>
-      <c r="N3">
-        <v>0.13232252825716101</v>
-      </c>
-      <c r="O3">
-        <v>1.82799329826083</v>
-      </c>
-      <c r="P3">
-        <v>0.31729241798083041</v>
-      </c>
-      <c r="Q3">
-        <v>0.2947238815157337</v>
-      </c>
-      <c r="R3">
-        <v>1.4181226803436373</v>
-      </c>
-      <c r="S3">
-        <v>5.1237896867225166</v>
-      </c>
-      <c r="T3">
-        <v>1.1361482346728899</v>
-      </c>
-      <c r="U3">
-        <v>1.1309484162975483</v>
-      </c>
-      <c r="V3">
-        <v>5.0305283146173041</v>
-      </c>
-      <c r="W3">
-        <v>1.0859009760331548</v>
-      </c>
-      <c r="X3">
-        <v>0.37577036745255016</v>
-      </c>
-      <c r="Y3">
-        <v>0.53023151174369398</v>
-      </c>
-      <c r="AA3">
-        <v>0.70801850090493279</v>
-      </c>
-      <c r="AB3">
-        <v>2.6909447268596329</v>
-      </c>
-      <c r="AC3">
-        <v>2.4260588048659075</v>
-      </c>
-      <c r="AD3">
-        <v>1.9388064218189569</v>
-      </c>
-      <c r="AE3">
-        <v>1.8338386552330903</v>
-      </c>
-      <c r="AF3">
-        <v>0.74093619637494168</v>
-      </c>
-      <c r="AG3">
-        <v>2.6350135980756306</v>
-      </c>
-      <c r="AH3">
-        <v>0.40401222398260694</v>
-      </c>
-      <c r="AI3">
-        <v>1.9909195250312215</v>
-      </c>
-      <c r="AJ3">
-        <v>5.2597096419254132</v>
-      </c>
-      <c r="AK3">
-        <v>0.38628750155590019</v>
-      </c>
-      <c r="AL3">
-        <v>1.6739224433880107</v>
-      </c>
-      <c r="AM3">
-        <v>0.73773041281105234</v>
-      </c>
-      <c r="AN3">
-        <v>2.3739224733048871</v>
-      </c>
       <c r="AO3">
-        <v>0.65548867716165704</v>
+        <v>0.65548866992790089</v>
       </c>
       <c r="AP3">
-        <v>0.11069595585163228</v>
+        <v>0.11069595575742337</v>
       </c>
       <c r="AQ3">
-        <v>1.2314511022644179</v>
+        <v>1.2314511606815479</v>
       </c>
       <c r="AR3">
-        <v>1.8330853949430623</v>
+        <v>1.8330853403953289</v>
       </c>
       <c r="AS3">
-        <v>3.5614551032548576</v>
+        <v>3.5614552489218667</v>
       </c>
       <c r="AT3">
-        <v>0.44471231851973131</v>
+        <v>0.44471231698744074</v>
       </c>
       <c r="AU3">
-        <v>16.939371929023416</v>
+        <v>16.939371717128317</v>
       </c>
       <c r="AV3">
-        <v>2.7572483395832954</v>
+        <v>2.7572483069707041</v>
       </c>
       <c r="AW3">
-        <v>0.52653292493866444</v>
+        <v>0.5265329385847527</v>
       </c>
       <c r="AX3">
-        <v>1.155142031128374</v>
+        <v>1.1551420167084874</v>
       </c>
       <c r="AY3">
-        <v>1.1578085207305437</v>
+        <v>1.1578084999787879</v>
       </c>
     </row>
   </sheetData>
